--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/99/word_level_predictions_99.xlsx
@@ -577,7 +577,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G3" t="b">
@@ -601,57 +601,57 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>required</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G50" s="2" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -8614,314 +8614,314 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E158" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F158" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" s="2" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K163" t="b">
-        <v>1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="F210" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G210" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="L210" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="F211" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G211" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="L211" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="F212" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G212" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="L212" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
@@ -24162,314 +24162,314 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" t="n">
-        <v>0</v>
-      </c>
-      <c r="E457" t="inlineStr">
+      <c r="D457" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" t="inlineStr">
+      <c r="F457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" t="inlineStr">
+      <c r="D458" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" t="inlineStr">
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B459" s="2" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C459" s="2" t="inlineStr">
+        <is>
+          <t>Temp</t>
+        </is>
+      </c>
+      <c r="D459" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E459" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B460" s="2" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C460" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="D460" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E460" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F460" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G460" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H460" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I460" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J460" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K460" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L460" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B461" s="2" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C461" s="2" t="inlineStr">
+        <is>
+          <t>Altitude</t>
+        </is>
+      </c>
+      <c r="D461" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E461" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F461" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G461" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H461" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I461" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J461" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K461" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L461" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B462" s="2" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C462" s="2" t="inlineStr">
+        <is>
+          <t>98ft</t>
+        </is>
+      </c>
+      <c r="D462" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E462" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F462" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="n">
-        <v>42</v>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>Temp</t>
-        </is>
-      </c>
-      <c r="D459" t="n">
-        <v>2</v>
-      </c>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="n">
-        <v>42</v>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="D460" t="n">
-        <v>3</v>
-      </c>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G460" t="b">
-        <v>1</v>
-      </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I460" t="b">
-        <v>1</v>
-      </c>
-      <c r="J460" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K460" t="b">
-        <v>1</v>
-      </c>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="n">
-        <v>42</v>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>Altitude</t>
-        </is>
-      </c>
-      <c r="D461" t="n">
-        <v>4</v>
-      </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G461" t="b">
-        <v>1</v>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I461" t="b">
-        <v>1</v>
-      </c>
-      <c r="J461" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K461" t="b">
-        <v>1</v>
-      </c>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="n">
-        <v>42</v>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>98ft</t>
-        </is>
-      </c>
-      <c r="D462" t="n">
-        <v>5</v>
-      </c>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F462" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G462" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I462" t="b">
-        <v>1</v>
-      </c>
-      <c r="J462" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K462" t="b">
-        <v>1</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="G462" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I462" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J462" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K462" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L462" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F490" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F496" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/99/word_level_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/99/word_level_predictions_99.xlsx
@@ -577,81 +577,81 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>IMU calibration required Calibrate IMU .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>IMU calibration required Calibrate IMU .</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>required</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G10" s="2" t="b">
@@ -965,7 +965,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G12" s="2" t="b">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G17" s="2" t="b">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G19" s="2" t="b">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G20" s="2" t="b">
@@ -1485,7 +1485,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G50" s="2" t="b">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8614,314 +8614,314 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" t="n">
         <v>15</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" t="n">
         <v>3</v>
       </c>
-      <c r="E158" s="2" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" t="n">
         <v>15</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" t="n">
         <v>4</v>
       </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" s="2" t="inlineStr">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" t="n">
         <v>15</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" t="n">
         <v>5</v>
       </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L160" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" t="n">
         <v>15</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" t="n">
         <v>6</v>
       </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" t="n">
         <v>15</v>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" t="n">
         <v>7</v>
       </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" t="n">
         <v>15</v>
       </c>
-      <c r="B163" s="2" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" s="2" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" s="2" t="n">
+      <c r="D163" t="n">
         <v>8</v>
       </c>
-      <c r="E163" s="2" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="F210" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G210" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="L210" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="F211" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G211" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11417,7 +11417,7 @@
       </c>
       <c r="L211" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="F212" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G212" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="L212" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="F213" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G213" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="L213" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="F214" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G214" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11573,7 +11573,7 @@
       </c>
       <c r="L214" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11601,7 +11601,7 @@
       </c>
       <c r="F215" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G215" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="L215" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11653,7 +11653,7 @@
       </c>
       <c r="F216" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G216" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L216" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11705,7 +11705,7 @@
       </c>
       <c r="F217" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G217" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="L217" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
@@ -24162,314 +24162,314 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>42</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>0</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
+      <c r="E457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" s="2" t="inlineStr">
+      <c r="F457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>42</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" s="2" t="inlineStr">
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>42</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>Temp</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>2</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="2" t="n">
+      <c r="A460" t="n">
         <v>42</v>
       </c>
-      <c r="B460" s="2" t="inlineStr">
+      <c r="B460" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C460" s="2" t="inlineStr">
+      <c r="C460" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D460" s="2" t="n">
+      <c r="D460" t="n">
         <v>3</v>
       </c>
-      <c r="E460" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F460" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G460" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H460" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I460" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J460" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K460" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L460" s="2" t="inlineStr">
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G460" t="b">
+        <v>1</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I460" t="b">
+        <v>1</v>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K460" t="b">
+        <v>1</v>
+      </c>
+      <c r="L460" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="n">
+      <c r="A461" t="n">
         <v>42</v>
       </c>
-      <c r="B461" s="2" t="inlineStr">
+      <c r="B461" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C461" s="2" t="inlineStr">
+      <c r="C461" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D461" s="2" t="n">
+      <c r="D461" t="n">
         <v>4</v>
       </c>
-      <c r="E461" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F461" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G461" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H461" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I461" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J461" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K461" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L461" s="2" t="inlineStr">
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G461" t="b">
+        <v>1</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I461" t="b">
+        <v>1</v>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K461" t="b">
+        <v>1</v>
+      </c>
+      <c r="L461" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="2" t="n">
+      <c r="A462" t="n">
         <v>42</v>
       </c>
-      <c r="B462" s="2" t="inlineStr">
+      <c r="B462" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C462" s="2" t="inlineStr">
+      <c r="C462" t="inlineStr">
         <is>
           <t>98ft</t>
         </is>
       </c>
-      <c r="D462" s="2" t="n">
+      <c r="D462" t="n">
         <v>5</v>
       </c>
-      <c r="E462" s="2" t="inlineStr">
+      <c r="E462" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F462" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G462" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I462" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J462" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K462" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L462" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G462" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I462" t="b">
+        <v>1</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K462" t="b">
+        <v>1</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" s="2" t="n">
+      <c r="D490" t="n">
         <v>7</v>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" s="2" t="n">
+      <c r="D491" t="n">
         <v>8</v>
       </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" s="2" t="n">
+      <c r="D492" t="n">
         <v>9</v>
       </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" s="2" t="n">
+      <c r="D493" t="n">
         <v>10</v>
       </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" s="2" t="n">
+      <c r="D494" t="n">
         <v>11</v>
       </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" s="2" t="n">
+      <c r="D495" t="n">
         <v>12</v>
       </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
